--- a/Escherichia coli/Molecular function/uniprot_report.xlsx
+++ b/Escherichia coli/Molecular function/uniprot_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
   <si>
     <t>type</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>binding</t>
+  </si>
+  <si>
+    <t>transcription regulator</t>
   </si>
   <si>
     <t>Molecular function</t>
@@ -425,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +474,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -494,7 +497,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -517,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -540,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -563,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -586,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -609,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -632,7 +635,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -655,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -678,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -701,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -724,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -747,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -770,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -793,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -816,7 +819,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -839,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -862,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -885,7 +888,7 @@
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -908,7 +911,7 @@
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -931,7 +934,7 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -954,7 +957,7 @@
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -977,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1000,7 +1003,191 @@
         <v>16</v>
       </c>
       <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="F26" t="s">
         <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>0.6739130434782609</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0.1521739130434783</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
